--- a/data/task_1.xlsx
+++ b/data/task_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,74 +572,85 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7844</v>
+        <v>7839</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TURNER</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BLAKE</t>
-        </is>
-      </c>
+          <t>KING</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7876</v>
+        <v>7844</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ADAMS</t>
+          <t>TURNER</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>BLAKE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7900</v>
+        <v>7876</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>ADAMS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BLAKE</t>
+          <t>SCOTT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7902</v>
+        <v>7900</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JONES</t>
+          <t>BLAKE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>7902</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>7934</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>MILLER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>CLARK</t>
         </is>
